--- a/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Util_クラス仕様書.xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Util_クラス仕様書.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AFDCB2-F37E-4F0B-8467-3B42B7C264CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEAA0FF-F2F0-49CA-A57C-AD974FEDCF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
     <sheet name="メソッド仕様（）" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BI$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（）'!$A$1:$BI$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（）'!$A$1:$BI$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,34 +134,6 @@
     <t>例外</t>
   </si>
   <si>
-    <t>ClassNotFoundException</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JDBCドライバが読み込めなかった場合</t>
-    <rPh sb="9" eb="10">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SQLException</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベースアクセス・SQL実行でエラーが発生した場合</t>
-    <rPh sb="14" eb="16">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>馬嶋航大</t>
     <rPh sb="0" eb="2">
       <t>マジマ</t>
@@ -196,6 +169,21 @@
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -276,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -542,13 +530,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,14 +700,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -690,19 +709,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -714,26 +757,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1080,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="U8" sqref="U8:AD8"/>
     </sheetView>
   </sheetViews>
@@ -1090,83 +1127,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="42" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="42" t="s">
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="42" t="s">
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="43" t="s">
-        <v>35</v>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="47" t="s">
+        <v>31</v>
       </c>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="42" t="s">
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="44">
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="45">
         <v>45554</v>
       </c>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="45"/>
+      <c r="BG1" s="45"/>
+      <c r="BH1" s="45"/>
+      <c r="BI1" s="45"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1366,75 +1403,75 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="42" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="42" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="42" t="s">
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="42" t="s">
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
+      <c r="BB2" s="48"/>
+      <c r="BC2" s="48"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -1697,938 +1734,923 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46" t="s">
-        <v>38</v>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44" t="s">
+        <v>34</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
-      <c r="BI4" s="46"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="44"/>
+      <c r="BD4" s="44"/>
+      <c r="BE4" s="44"/>
+      <c r="BF4" s="44"/>
+      <c r="BG4" s="44"/>
+      <c r="BH4" s="44"/>
+      <c r="BI4" s="44"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="45" t="s">
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="46" t="s">
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="46"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="46"/>
-      <c r="BA6" s="46"/>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="46"/>
-      <c r="BD6" s="46"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="46"/>
-      <c r="BG6" s="46"/>
-      <c r="BH6" s="46"/>
-      <c r="BI6" s="46"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="44"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="44"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="44"/>
+      <c r="BC6" s="44"/>
+      <c r="BD6" s="44"/>
+      <c r="BE6" s="44"/>
+      <c r="BF6" s="44"/>
+      <c r="BG6" s="44"/>
+      <c r="BH6" s="44"/>
+      <c r="BI6" s="44"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45" t="s">
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45" t="s">
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45" t="s">
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="43"/>
+      <c r="AN8" s="43"/>
+      <c r="AO8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45"/>
-      <c r="BD8" s="45"/>
-      <c r="BE8" s="45"/>
-      <c r="BF8" s="45"/>
-      <c r="BG8" s="45"/>
-      <c r="BH8" s="45"/>
-      <c r="BI8" s="45"/>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="43"/>
+      <c r="AT8" s="43"/>
+      <c r="AU8" s="43"/>
+      <c r="AV8" s="43"/>
+      <c r="AW8" s="43"/>
+      <c r="AX8" s="43"/>
+      <c r="AY8" s="43"/>
+      <c r="AZ8" s="43"/>
+      <c r="BA8" s="43"/>
+      <c r="BB8" s="43"/>
+      <c r="BC8" s="43"/>
+      <c r="BD8" s="43"/>
+      <c r="BE8" s="43"/>
+      <c r="BF8" s="43"/>
+      <c r="BG8" s="43"/>
+      <c r="BH8" s="43"/>
+      <c r="BI8" s="43"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="49"/>
-      <c r="AK9" s="49"/>
-      <c r="AL9" s="49"/>
-      <c r="AM9" s="49"/>
-      <c r="AN9" s="49"/>
-      <c r="AO9" s="49"/>
-      <c r="AP9" s="49"/>
-      <c r="AQ9" s="49"/>
-      <c r="AR9" s="49"/>
-      <c r="AS9" s="49"/>
-      <c r="AT9" s="49"/>
-      <c r="AU9" s="49"/>
-      <c r="AV9" s="49"/>
-      <c r="AW9" s="49"/>
-      <c r="AX9" s="49"/>
-      <c r="AY9" s="49"/>
-      <c r="AZ9" s="49"/>
-      <c r="BA9" s="49"/>
-      <c r="BB9" s="49"/>
-      <c r="BC9" s="49"/>
-      <c r="BD9" s="49"/>
-      <c r="BE9" s="49"/>
-      <c r="BF9" s="49"/>
-      <c r="BG9" s="49"/>
-      <c r="BH9" s="49"/>
-      <c r="BI9" s="49"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="42"/>
+      <c r="BC9" s="42"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="42"/>
+      <c r="BF9" s="42"/>
+      <c r="BG9" s="42"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="42"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="49"/>
-      <c r="AO10" s="49"/>
-      <c r="AP10" s="49"/>
-      <c r="AQ10" s="49"/>
-      <c r="AR10" s="49"/>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="49"/>
-      <c r="AU10" s="49"/>
-      <c r="AV10" s="49"/>
-      <c r="AW10" s="49"/>
-      <c r="AX10" s="49"/>
-      <c r="AY10" s="49"/>
-      <c r="AZ10" s="49"/>
-      <c r="BA10" s="49"/>
-      <c r="BB10" s="49"/>
-      <c r="BC10" s="49"/>
-      <c r="BD10" s="49"/>
-      <c r="BE10" s="49"/>
-      <c r="BF10" s="49"/>
-      <c r="BG10" s="49"/>
-      <c r="BH10" s="49"/>
-      <c r="BI10" s="49"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="42"/>
+      <c r="AU10" s="42"/>
+      <c r="AV10" s="42"/>
+      <c r="AW10" s="42"/>
+      <c r="AX10" s="42"/>
+      <c r="AY10" s="42"/>
+      <c r="AZ10" s="42"/>
+      <c r="BA10" s="42"/>
+      <c r="BB10" s="42"/>
+      <c r="BC10" s="42"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="42"/>
+      <c r="BF10" s="42"/>
+      <c r="BG10" s="42"/>
+      <c r="BH10" s="42"/>
+      <c r="BI10" s="42"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="49"/>
-      <c r="AO11" s="49"/>
-      <c r="AP11" s="49"/>
-      <c r="AQ11" s="49"/>
-      <c r="AR11" s="49"/>
-      <c r="AS11" s="49"/>
-      <c r="AT11" s="49"/>
-      <c r="AU11" s="49"/>
-      <c r="AV11" s="49"/>
-      <c r="AW11" s="49"/>
-      <c r="AX11" s="49"/>
-      <c r="AY11" s="49"/>
-      <c r="AZ11" s="49"/>
-      <c r="BA11" s="49"/>
-      <c r="BB11" s="49"/>
-      <c r="BC11" s="49"/>
-      <c r="BD11" s="49"/>
-      <c r="BE11" s="49"/>
-      <c r="BF11" s="49"/>
-      <c r="BG11" s="49"/>
-      <c r="BH11" s="49"/>
-      <c r="BI11" s="49"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="42"/>
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="42"/>
+      <c r="AX11" s="42"/>
+      <c r="AY11" s="42"/>
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="42"/>
+      <c r="BB11" s="42"/>
+      <c r="BC11" s="42"/>
+      <c r="BD11" s="42"/>
+      <c r="BE11" s="42"/>
+      <c r="BF11" s="42"/>
+      <c r="BG11" s="42"/>
+      <c r="BH11" s="42"/>
+      <c r="BI11" s="42"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="45"/>
-      <c r="AS13" s="45"/>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="45"/>
-      <c r="AY13" s="45"/>
-      <c r="AZ13" s="45"/>
-      <c r="BA13" s="45"/>
-      <c r="BB13" s="45"/>
-      <c r="BC13" s="45"/>
-      <c r="BD13" s="45"/>
-      <c r="BE13" s="45"/>
-      <c r="BF13" s="45"/>
-      <c r="BG13" s="45"/>
-      <c r="BH13" s="45"/>
-      <c r="BI13" s="45"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="43"/>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="43"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="43"/>
+      <c r="AW13" s="43"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="43"/>
+      <c r="BA13" s="43"/>
+      <c r="BB13" s="43"/>
+      <c r="BC13" s="43"/>
+      <c r="BD13" s="43"/>
+      <c r="BE13" s="43"/>
+      <c r="BF13" s="43"/>
+      <c r="BG13" s="43"/>
+      <c r="BH13" s="43"/>
+      <c r="BI13" s="43"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="49"/>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="49"/>
-      <c r="AP14" s="49"/>
-      <c r="AQ14" s="49"/>
-      <c r="AR14" s="49"/>
-      <c r="AS14" s="49"/>
-      <c r="AT14" s="49"/>
-      <c r="AU14" s="49"/>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="49"/>
-      <c r="BB14" s="49"/>
-      <c r="BC14" s="49"/>
-      <c r="BD14" s="49"/>
-      <c r="BE14" s="49"/>
-      <c r="BF14" s="49"/>
-      <c r="BG14" s="49"/>
-      <c r="BH14" s="49"/>
-      <c r="BI14" s="49"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="42"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="42"/>
+      <c r="AX14" s="42"/>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="42"/>
+      <c r="BA14" s="42"/>
+      <c r="BB14" s="42"/>
+      <c r="BC14" s="42"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="42"/>
+      <c r="BF14" s="42"/>
+      <c r="BG14" s="42"/>
+      <c r="BH14" s="42"/>
+      <c r="BI14" s="42"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="49"/>
-      <c r="AH15" s="49"/>
-      <c r="AI15" s="49"/>
-      <c r="AJ15" s="49"/>
-      <c r="AK15" s="49"/>
-      <c r="AL15" s="49"/>
-      <c r="AM15" s="49"/>
-      <c r="AN15" s="49"/>
-      <c r="AO15" s="49"/>
-      <c r="AP15" s="49"/>
-      <c r="AQ15" s="49"/>
-      <c r="AR15" s="49"/>
-      <c r="AS15" s="49"/>
-      <c r="AT15" s="49"/>
-      <c r="AU15" s="49"/>
-      <c r="AV15" s="49"/>
-      <c r="AW15" s="49"/>
-      <c r="AX15" s="49"/>
-      <c r="AY15" s="49"/>
-      <c r="AZ15" s="49"/>
-      <c r="BA15" s="49"/>
-      <c r="BB15" s="49"/>
-      <c r="BC15" s="49"/>
-      <c r="BD15" s="49"/>
-      <c r="BE15" s="49"/>
-      <c r="BF15" s="49"/>
-      <c r="BG15" s="49"/>
-      <c r="BH15" s="49"/>
-      <c r="BI15" s="49"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="42"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="42"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="42"/>
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="42"/>
+      <c r="AY15" s="42"/>
+      <c r="AZ15" s="42"/>
+      <c r="BA15" s="42"/>
+      <c r="BB15" s="42"/>
+      <c r="BC15" s="42"/>
+      <c r="BD15" s="42"/>
+      <c r="BE15" s="42"/>
+      <c r="BF15" s="42"/>
+      <c r="BG15" s="42"/>
+      <c r="BH15" s="42"/>
+      <c r="BI15" s="42"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="49"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="49"/>
-      <c r="AK16" s="49"/>
-      <c r="AL16" s="49"/>
-      <c r="AM16" s="49"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="49"/>
-      <c r="AP16" s="49"/>
-      <c r="AQ16" s="49"/>
-      <c r="AR16" s="49"/>
-      <c r="AS16" s="49"/>
-      <c r="AT16" s="49"/>
-      <c r="AU16" s="49"/>
-      <c r="AV16" s="49"/>
-      <c r="AW16" s="49"/>
-      <c r="AX16" s="49"/>
-      <c r="AY16" s="49"/>
-      <c r="AZ16" s="49"/>
-      <c r="BA16" s="49"/>
-      <c r="BB16" s="49"/>
-      <c r="BC16" s="49"/>
-      <c r="BD16" s="49"/>
-      <c r="BE16" s="49"/>
-      <c r="BF16" s="49"/>
-      <c r="BG16" s="49"/>
-      <c r="BH16" s="49"/>
-      <c r="BI16" s="49"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="42"/>
+      <c r="AN16" s="42"/>
+      <c r="AO16" s="42"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="42"/>
+      <c r="AS16" s="42"/>
+      <c r="AT16" s="42"/>
+      <c r="AU16" s="42"/>
+      <c r="AV16" s="42"/>
+      <c r="AW16" s="42"/>
+      <c r="AX16" s="42"/>
+      <c r="AY16" s="42"/>
+      <c r="AZ16" s="42"/>
+      <c r="BA16" s="42"/>
+      <c r="BB16" s="42"/>
+      <c r="BC16" s="42"/>
+      <c r="BD16" s="42"/>
+      <c r="BE16" s="42"/>
+      <c r="BF16" s="42"/>
+      <c r="BG16" s="42"/>
+      <c r="BH16" s="42"/>
+      <c r="BI16" s="42"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="49"/>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="49"/>
-      <c r="AL17" s="49"/>
-      <c r="AM17" s="49"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="49"/>
-      <c r="AP17" s="49"/>
-      <c r="AQ17" s="49"/>
-      <c r="AR17" s="49"/>
-      <c r="AS17" s="49"/>
-      <c r="AT17" s="49"/>
-      <c r="AU17" s="49"/>
-      <c r="AV17" s="49"/>
-      <c r="AW17" s="49"/>
-      <c r="AX17" s="49"/>
-      <c r="AY17" s="49"/>
-      <c r="AZ17" s="49"/>
-      <c r="BA17" s="49"/>
-      <c r="BB17" s="49"/>
-      <c r="BC17" s="49"/>
-      <c r="BD17" s="49"/>
-      <c r="BE17" s="49"/>
-      <c r="BF17" s="49"/>
-      <c r="BG17" s="49"/>
-      <c r="BH17" s="49"/>
-      <c r="BI17" s="49"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="42"/>
+      <c r="AU17" s="42"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="42"/>
+      <c r="AY17" s="42"/>
+      <c r="AZ17" s="42"/>
+      <c r="BA17" s="42"/>
+      <c r="BB17" s="42"/>
+      <c r="BC17" s="42"/>
+      <c r="BD17" s="42"/>
+      <c r="BE17" s="42"/>
+      <c r="BF17" s="42"/>
+      <c r="BG17" s="42"/>
+      <c r="BH17" s="42"/>
+      <c r="BI17" s="42"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="49"/>
-      <c r="AL18" s="49"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="49"/>
-      <c r="AU18" s="49"/>
-      <c r="AV18" s="49"/>
-      <c r="AW18" s="49"/>
-      <c r="AX18" s="49"/>
-      <c r="AY18" s="49"/>
-      <c r="AZ18" s="49"/>
-      <c r="BA18" s="49"/>
-      <c r="BB18" s="49"/>
-      <c r="BC18" s="49"/>
-      <c r="BD18" s="49"/>
-      <c r="BE18" s="49"/>
-      <c r="BF18" s="49"/>
-      <c r="BG18" s="49"/>
-      <c r="BH18" s="49"/>
-      <c r="BI18" s="49"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="42"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="42"/>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
+      <c r="AU18" s="42"/>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="42"/>
+      <c r="AX18" s="42"/>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="42"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="42"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="42"/>
+      <c r="BF18" s="42"/>
+      <c r="BG18" s="42"/>
+      <c r="BH18" s="42"/>
+      <c r="BI18" s="42"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="49"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="49"/>
-      <c r="AT19" s="49"/>
-      <c r="AU19" s="49"/>
-      <c r="AV19" s="49"/>
-      <c r="AW19" s="49"/>
-      <c r="AX19" s="49"/>
-      <c r="AY19" s="49"/>
-      <c r="AZ19" s="49"/>
-      <c r="BA19" s="49"/>
-      <c r="BB19" s="49"/>
-      <c r="BC19" s="49"/>
-      <c r="BD19" s="49"/>
-      <c r="BE19" s="49"/>
-      <c r="BF19" s="49"/>
-      <c r="BG19" s="49"/>
-      <c r="BH19" s="49"/>
-      <c r="BI19" s="49"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="42"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="42"/>
+      <c r="AU19" s="42"/>
+      <c r="AV19" s="42"/>
+      <c r="AW19" s="42"/>
+      <c r="AX19" s="42"/>
+      <c r="AY19" s="42"/>
+      <c r="AZ19" s="42"/>
+      <c r="BA19" s="42"/>
+      <c r="BB19" s="42"/>
+      <c r="BC19" s="42"/>
+      <c r="BD19" s="42"/>
+      <c r="BE19" s="42"/>
+      <c r="BF19" s="42"/>
+      <c r="BG19" s="42"/>
+      <c r="BH19" s="42"/>
+      <c r="BI19" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A14:BI19"/>
-    <mergeCell ref="A13:BI13"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AN10"/>
-    <mergeCell ref="AO10:BI10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AN11"/>
-    <mergeCell ref="AO11:BI11"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AN9"/>
-    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
@@ -2645,14 +2667,29 @@
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AN9"/>
+    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
+    <mergeCell ref="A14:BI19"/>
+    <mergeCell ref="A13:BI13"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AN10"/>
+    <mergeCell ref="AO10:BI10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AN11"/>
+    <mergeCell ref="AO11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -2664,10 +2701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IX53"/>
+  <dimension ref="A1:IX54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:BI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2676,83 +2713,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="42" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="42" t="s">
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="42" t="s">
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="43" t="s">
-        <v>35</v>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="47" t="s">
+        <v>31</v>
       </c>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="42" t="s">
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="44">
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="45">
         <v>45554</v>
       </c>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="45"/>
+      <c r="BG1" s="45"/>
+      <c r="BH1" s="45"/>
+      <c r="BI1" s="45"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2952,75 +2989,75 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="42" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="42" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="42" t="s">
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="42" t="s">
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
+      <c r="BB2" s="48"/>
+      <c r="BC2" s="48"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -3283,69 +3320,69 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
-      <c r="BI4" s="46"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="44"/>
+      <c r="BD4" s="44"/>
+      <c r="BE4" s="44"/>
+      <c r="BF4" s="44"/>
+      <c r="BG4" s="44"/>
+      <c r="BH4" s="44"/>
+      <c r="BI4" s="44"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -3545,69 +3582,69 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -3807,67 +3844,71 @@
       <c r="IX5" s="1"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-      <c r="BF6" s="4"/>
-      <c r="BG6" s="4"/>
-      <c r="BH6" s="4"/>
-      <c r="BI6" s="4"/>
+      <c r="A6" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="65"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="65"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="65"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="65"/>
+      <c r="AZ6" s="65"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="65"/>
+      <c r="BC6" s="65"/>
+      <c r="BD6" s="65"/>
+      <c r="BE6" s="65"/>
+      <c r="BF6" s="65"/>
+      <c r="BG6" s="65"/>
+      <c r="BH6" s="65"/>
+      <c r="BI6" s="65"/>
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
       <c r="BL6" s="1"/>
@@ -4067,75 +4108,67 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="55"/>
-      <c r="AP7" s="55"/>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="55"/>
-      <c r="AS7" s="55"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55"/>
-      <c r="AV7" s="55"/>
-      <c r="AW7" s="55"/>
-      <c r="AX7" s="55"/>
-      <c r="AY7" s="55"/>
-      <c r="AZ7" s="55"/>
-      <c r="BA7" s="55"/>
-      <c r="BB7" s="55"/>
-      <c r="BC7" s="55"/>
-      <c r="BD7" s="55"/>
-      <c r="BE7" s="55"/>
-      <c r="BF7" s="55"/>
-      <c r="BG7" s="55"/>
-      <c r="BH7" s="55"/>
-      <c r="BI7" s="55"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -4336,68 +4369,74 @@
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="53"/>
-      <c r="AP8" s="53"/>
-      <c r="AQ8" s="53"/>
-      <c r="AR8" s="53"/>
-      <c r="AS8" s="53"/>
-      <c r="AT8" s="53"/>
-      <c r="AU8" s="53"/>
-      <c r="AV8" s="53"/>
-      <c r="AW8" s="53"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
-      <c r="AZ8" s="53"/>
-      <c r="BA8" s="53"/>
-      <c r="BB8" s="53"/>
-      <c r="BC8" s="53"/>
-      <c r="BD8" s="53"/>
-      <c r="BE8" s="53"/>
-      <c r="BF8" s="53"/>
-      <c r="BG8" s="53"/>
-      <c r="BH8" s="53"/>
-      <c r="BI8" s="54"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="52"/>
+      <c r="AQ8" s="52"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="52"/>
+      <c r="AT8" s="52"/>
+      <c r="AU8" s="52"/>
+      <c r="AV8" s="52"/>
+      <c r="AW8" s="52"/>
+      <c r="AX8" s="52"/>
+      <c r="AY8" s="52"/>
+      <c r="AZ8" s="52"/>
+      <c r="BA8" s="52"/>
+      <c r="BB8" s="52"/>
+      <c r="BC8" s="52"/>
+      <c r="BD8" s="52"/>
+      <c r="BE8" s="52"/>
+      <c r="BF8" s="52"/>
+      <c r="BG8" s="52"/>
+      <c r="BH8" s="52"/>
+      <c r="BI8" s="52"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -4597,69 +4636,69 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>23</v>
+      <c r="A9" s="58" t="s">
+        <v>22</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="57"/>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="57"/>
-      <c r="AX9" s="57"/>
-      <c r="AY9" s="57"/>
-      <c r="AZ9" s="57"/>
-      <c r="BA9" s="57"/>
-      <c r="BB9" s="57"/>
-      <c r="BC9" s="57"/>
-      <c r="BD9" s="57"/>
-      <c r="BE9" s="57"/>
-      <c r="BF9" s="57"/>
-      <c r="BG9" s="57"/>
-      <c r="BH9" s="57"/>
-      <c r="BI9" s="57"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="59"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="59"/>
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="59"/>
+      <c r="AV9" s="59"/>
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
+      <c r="AY9" s="59"/>
+      <c r="AZ9" s="59"/>
+      <c r="BA9" s="59"/>
+      <c r="BB9" s="59"/>
+      <c r="BC9" s="59"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="59"/>
+      <c r="BF9" s="59"/>
+      <c r="BG9" s="59"/>
+      <c r="BH9" s="59"/>
+      <c r="BI9" s="60"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -4859,73 +4898,69 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
-        <v>30</v>
+      <c r="A10" s="50" t="s">
+        <v>23</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="49"/>
-      <c r="AO10" s="49"/>
-      <c r="AP10" s="49"/>
-      <c r="AQ10" s="49"/>
-      <c r="AR10" s="49"/>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="49"/>
-      <c r="AU10" s="49"/>
-      <c r="AV10" s="49"/>
-      <c r="AW10" s="49"/>
-      <c r="AX10" s="49"/>
-      <c r="AY10" s="49"/>
-      <c r="AZ10" s="49"/>
-      <c r="BA10" s="49"/>
-      <c r="BB10" s="49"/>
-      <c r="BC10" s="49"/>
-      <c r="BD10" s="49"/>
-      <c r="BE10" s="49"/>
-      <c r="BF10" s="49"/>
-      <c r="BG10" s="49"/>
-      <c r="BH10" s="49"/>
-      <c r="BI10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="51"/>
+      <c r="AT10" s="51"/>
+      <c r="AU10" s="51"/>
+      <c r="AV10" s="51"/>
+      <c r="AW10" s="51"/>
+      <c r="AX10" s="51"/>
+      <c r="AY10" s="51"/>
+      <c r="AZ10" s="51"/>
+      <c r="BA10" s="51"/>
+      <c r="BB10" s="51"/>
+      <c r="BC10" s="51"/>
+      <c r="BD10" s="51"/>
+      <c r="BE10" s="51"/>
+      <c r="BF10" s="51"/>
+      <c r="BG10" s="51"/>
+      <c r="BH10" s="51"/>
+      <c r="BI10" s="51"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -5125,73 +5160,69 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="57"/>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="57"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="57"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="57"/>
-      <c r="AP11" s="57"/>
-      <c r="AQ11" s="57"/>
-      <c r="AR11" s="57"/>
-      <c r="AS11" s="57"/>
-      <c r="AT11" s="57"/>
-      <c r="AU11" s="57"/>
-      <c r="AV11" s="57"/>
-      <c r="AW11" s="57"/>
-      <c r="AX11" s="57"/>
-      <c r="AY11" s="57"/>
-      <c r="AZ11" s="57"/>
-      <c r="BA11" s="57"/>
-      <c r="BB11" s="57"/>
-      <c r="BC11" s="57"/>
-      <c r="BD11" s="57"/>
-      <c r="BE11" s="57"/>
-      <c r="BF11" s="57"/>
-      <c r="BG11" s="57"/>
-      <c r="BH11" s="57"/>
-      <c r="BI11" s="57"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="42"/>
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="42"/>
+      <c r="AX11" s="42"/>
+      <c r="AY11" s="42"/>
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="42"/>
+      <c r="BB11" s="42"/>
+      <c r="BC11" s="42"/>
+      <c r="BD11" s="42"/>
+      <c r="BE11" s="42"/>
+      <c r="BF11" s="42"/>
+      <c r="BG11" s="42"/>
+      <c r="BH11" s="42"/>
+      <c r="BI11" s="42"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -5391,67 +5422,69 @@
       <c r="IX11" s="1"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
+      <c r="A12" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
@@ -5651,75 +5684,67 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="58"/>
-      <c r="AX13" s="58"/>
-      <c r="AY13" s="58"/>
-      <c r="AZ13" s="58"/>
-      <c r="BA13" s="58"/>
-      <c r="BB13" s="58"/>
-      <c r="BC13" s="58"/>
-      <c r="BD13" s="58"/>
-      <c r="BE13" s="58"/>
-      <c r="BF13" s="58"/>
-      <c r="BG13" s="58"/>
-      <c r="BH13" s="58"/>
-      <c r="BI13" s="59"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -5919,67 +5944,75 @@
       <c r="IX13" s="1"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="15"/>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-      <c r="BF14" s="9"/>
-      <c r="BG14" s="9"/>
-      <c r="BH14" s="9"/>
-      <c r="BI14" s="10"/>
+      <c r="A14" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="61"/>
+      <c r="AT14" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="53"/>
+      <c r="BA14" s="53"/>
+      <c r="BB14" s="53"/>
+      <c r="BC14" s="53"/>
+      <c r="BD14" s="53"/>
+      <c r="BE14" s="53"/>
+      <c r="BF14" s="53"/>
+      <c r="BG14" s="53"/>
+      <c r="BH14" s="53"/>
+      <c r="BI14" s="54"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
@@ -6179,22 +6212,23 @@
       <c r="IX14" s="1"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="18"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="13"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
@@ -6223,20 +6257,22 @@
       <c r="AQ15" s="14"/>
       <c r="AR15" s="14"/>
       <c r="AS15" s="14"/>
-      <c r="AT15" s="11"/>
-      <c r="AW15" s="16"/>
-      <c r="AX15" s="17"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="17"/>
-      <c r="BA15" s="17"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="17"/>
-      <c r="BD15" s="17"/>
-      <c r="BE15" s="17"/>
-      <c r="BF15" s="17"/>
-      <c r="BG15" s="17"/>
-      <c r="BH15" s="17"/>
-      <c r="BI15" s="18"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="10"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
@@ -6437,8 +6473,7 @@
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="16"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -6452,34 +6487,35 @@
       <c r="N16" s="17"/>
       <c r="O16" s="18"/>
       <c r="P16" s="11"/>
+      <c r="Q16" s="19"/>
       <c r="R16" s="13"/>
-      <c r="S16" s="17"/>
+      <c r="S16" s="14"/>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="20"/>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="20"/>
-      <c r="AL16" s="20"/>
-      <c r="AM16" s="20"/>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
-      <c r="AQ16" s="20"/>
-      <c r="AR16" s="20"/>
-      <c r="AS16" s="20"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
       <c r="AT16" s="11"/>
       <c r="AW16" s="16"/>
       <c r="AX16" s="17"/>
@@ -6709,10 +6745,11 @@
       <c r="N17" s="17"/>
       <c r="O17" s="18"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="21"/>
+      <c r="R17" s="13"/>
       <c r="S17" s="17"/>
-      <c r="U17" s="17"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
@@ -7221,12 +7258,10 @@
       <c r="N19" s="17"/>
       <c r="O19" s="18"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="17"/>
+      <c r="U19" s="17"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
@@ -8513,7 +8548,8 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="22"/>
-      <c r="S24" s="20"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="20"/>
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
@@ -8769,7 +8805,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="17"/>
-      <c r="R25" s="23"/>
+      <c r="R25" s="22"/>
       <c r="S25" s="20"/>
       <c r="U25" s="20"/>
       <c r="V25" s="20"/>
@@ -9025,10 +9061,9 @@
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="20"/>
+      <c r="Q26" s="17"/>
       <c r="R26" s="23"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="20"/>
+      <c r="S26" s="20"/>
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
@@ -9283,7 +9318,7 @@
       <c r="N27" s="17"/>
       <c r="O27" s="18"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="17"/>
+      <c r="Q27" s="20"/>
       <c r="R27" s="23"/>
       <c r="S27" s="16"/>
       <c r="T27" s="20"/>
@@ -9798,8 +9833,8 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
       <c r="O29" s="18"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="25"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="17"/>
       <c r="R29" s="23"/>
       <c r="S29" s="16"/>
       <c r="T29" s="20"/>
@@ -10056,8 +10091,8 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="17"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="25"/>
       <c r="R30" s="23"/>
       <c r="S30" s="16"/>
       <c r="T30" s="20"/>
@@ -10314,10 +10349,10 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="25"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="17"/>
       <c r="R31" s="23"/>
-      <c r="S31" s="26"/>
+      <c r="S31" s="16"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
@@ -10577,7 +10612,7 @@
       <c r="R32" s="23"/>
       <c r="S32" s="26"/>
       <c r="T32" s="20"/>
-      <c r="U32" s="26"/>
+      <c r="U32" s="20"/>
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
@@ -10830,12 +10865,12 @@
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
       <c r="O33" s="18"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="17"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="25"/>
       <c r="R33" s="23"/>
-      <c r="S33" s="16"/>
+      <c r="S33" s="26"/>
       <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
+      <c r="U33" s="26"/>
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
@@ -11607,7 +11642,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="17"/>
       <c r="R36" s="23"/>
-      <c r="S36" s="20"/>
+      <c r="S36" s="16"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
@@ -12120,9 +12155,9 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
       <c r="O38" s="18"/>
-      <c r="P38" s="27"/>
+      <c r="P38" s="11"/>
       <c r="Q38" s="17"/>
-      <c r="R38" s="28"/>
+      <c r="R38" s="23"/>
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
@@ -12637,10 +12672,10 @@
       <c r="N40" s="17"/>
       <c r="O40" s="18"/>
       <c r="P40" s="27"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="23"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="28"/>
       <c r="S40" s="20"/>
-      <c r="T40" s="29"/>
+      <c r="T40" s="20"/>
       <c r="U40" s="20"/>
       <c r="V40" s="20"/>
       <c r="W40" s="20"/>
@@ -12895,11 +12930,11 @@
       <c r="N41" s="17"/>
       <c r="O41" s="18"/>
       <c r="P41" s="27"/>
-      <c r="Q41" s="17"/>
+      <c r="Q41" s="14"/>
       <c r="R41" s="23"/>
-      <c r="S41" s="29"/>
+      <c r="S41" s="20"/>
       <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
+      <c r="U41" s="20"/>
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
@@ -12925,7 +12960,7 @@
       <c r="AR41" s="20"/>
       <c r="AS41" s="20"/>
       <c r="AT41" s="11"/>
-      <c r="AW41" s="17"/>
+      <c r="AW41" s="16"/>
       <c r="AX41" s="17"/>
       <c r="AY41" s="17"/>
       <c r="AZ41" s="17"/>
@@ -13161,30 +13196,30 @@
       <c r="V42" s="20"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
-      <c r="AF42" s="17"/>
-      <c r="AG42" s="17"/>
-      <c r="AH42" s="17"/>
-      <c r="AI42" s="17"/>
-      <c r="AJ42" s="17"/>
-      <c r="AK42" s="17"/>
-      <c r="AL42" s="17"/>
-      <c r="AM42" s="17"/>
-      <c r="AN42" s="17"/>
-      <c r="AO42" s="17"/>
-      <c r="AP42" s="17"/>
-      <c r="AQ42" s="17"/>
-      <c r="AR42" s="17"/>
-      <c r="AS42" s="17"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" s="20"/>
+      <c r="AG42" s="20"/>
+      <c r="AH42" s="20"/>
+      <c r="AI42" s="20"/>
+      <c r="AJ42" s="20"/>
+      <c r="AK42" s="20"/>
+      <c r="AL42" s="20"/>
+      <c r="AM42" s="20"/>
+      <c r="AN42" s="20"/>
+      <c r="AO42" s="20"/>
+      <c r="AP42" s="20"/>
+      <c r="AQ42" s="20"/>
+      <c r="AR42" s="20"/>
+      <c r="AS42" s="20"/>
       <c r="AT42" s="11"/>
       <c r="AW42" s="17"/>
-      <c r="AX42" s="16"/>
+      <c r="AX42" s="17"/>
       <c r="AY42" s="17"/>
       <c r="AZ42" s="17"/>
       <c r="BA42" s="17"/>
@@ -13410,8 +13445,9 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
       <c r="O43" s="18"/>
-      <c r="P43" s="11"/>
-      <c r="R43" s="28"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="23"/>
       <c r="S43" s="29"/>
       <c r="T43" s="29"/>
       <c r="U43" s="29"/>
@@ -13439,7 +13475,7 @@
       <c r="AQ43" s="17"/>
       <c r="AR43" s="17"/>
       <c r="AS43" s="17"/>
-      <c r="AT43" s="27"/>
+      <c r="AT43" s="11"/>
       <c r="AW43" s="17"/>
       <c r="AX43" s="16"/>
       <c r="AY43" s="17"/>
@@ -13668,36 +13704,35 @@
       <c r="N44" s="17"/>
       <c r="O44" s="18"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
       <c r="Y44" s="17"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14"/>
-      <c r="AL44" s="14"/>
-      <c r="AM44" s="14"/>
-      <c r="AN44" s="14"/>
-      <c r="AO44" s="14"/>
-      <c r="AP44" s="14"/>
-      <c r="AQ44" s="14"/>
-      <c r="AR44" s="14"/>
-      <c r="AS44" s="14"/>
-      <c r="AT44" s="11"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="17"/>
+      <c r="AM44" s="17"/>
+      <c r="AN44" s="17"/>
+      <c r="AO44" s="17"/>
+      <c r="AP44" s="17"/>
+      <c r="AQ44" s="17"/>
+      <c r="AR44" s="17"/>
+      <c r="AS44" s="17"/>
+      <c r="AT44" s="27"/>
       <c r="AW44" s="17"/>
       <c r="AX44" s="16"/>
       <c r="AY44" s="17"/>
@@ -13732,7 +13767,7 @@
       <c r="Q45" s="17"/>
       <c r="R45" s="30"/>
       <c r="S45" s="31"/>
-      <c r="T45" s="20"/>
+      <c r="T45" s="31"/>
       <c r="U45" s="31"/>
       <c r="V45" s="31"/>
       <c r="W45" s="31"/>
@@ -13789,11 +13824,11 @@
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="18"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="33"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="17"/>
       <c r="R46" s="30"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="20"/>
       <c r="U46" s="31"/>
       <c r="V46" s="31"/>
       <c r="W46" s="31"/>
@@ -13850,11 +13885,11 @@
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="18"/>
-      <c r="P47" s="11"/>
+      <c r="P47" s="32"/>
       <c r="Q47" s="33"/>
       <c r="R47" s="30"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="31"/>
       <c r="U47" s="31"/>
       <c r="V47" s="31"/>
       <c r="W47" s="31"/>
@@ -13912,7 +13947,7 @@
       <c r="N48" s="17"/>
       <c r="O48" s="18"/>
       <c r="P48" s="11"/>
-      <c r="Q48" s="17"/>
+      <c r="Q48" s="33"/>
       <c r="R48" s="30"/>
       <c r="S48" s="31"/>
       <c r="T48" s="20"/>
@@ -13973,15 +14008,15 @@
       <c r="N49" s="17"/>
       <c r="O49" s="18"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="35"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="31"/>
       <c r="T49" s="20"/>
       <c r="U49" s="31"/>
       <c r="V49" s="31"/>
       <c r="W49" s="31"/>
       <c r="X49" s="31"/>
-      <c r="Y49" s="14"/>
+      <c r="Y49" s="17"/>
       <c r="Z49" s="14"/>
       <c r="AA49" s="14"/>
       <c r="AB49" s="14"/>
@@ -14036,12 +14071,12 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="33"/>
       <c r="R50" s="34"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31"/>
       <c r="Y50" s="14"/>
       <c r="Z50" s="14"/>
       <c r="AA50" s="14"/>
@@ -14063,7 +14098,7 @@
       <c r="AQ50" s="14"/>
       <c r="AR50" s="14"/>
       <c r="AS50" s="14"/>
-      <c r="AT50" s="32"/>
+      <c r="AT50" s="11"/>
       <c r="AW50" s="17"/>
       <c r="AX50" s="16"/>
       <c r="AY50" s="17"/>
@@ -14095,11 +14130,11 @@
       <c r="N51" s="17"/>
       <c r="O51" s="18"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="36"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="14"/>
       <c r="T51" s="17"/>
-      <c r="U51" s="14"/>
+      <c r="U51" s="35"/>
       <c r="V51" s="14"/>
       <c r="W51" s="14"/>
       <c r="X51" s="14"/>
@@ -14124,7 +14159,7 @@
       <c r="AQ51" s="14"/>
       <c r="AR51" s="14"/>
       <c r="AS51" s="14"/>
-      <c r="AT51" s="11"/>
+      <c r="AT51" s="32"/>
       <c r="AW51" s="17"/>
       <c r="AX51" s="16"/>
       <c r="AY51" s="17"/>
@@ -14156,9 +14191,10 @@
       <c r="N52" s="17"/>
       <c r="O52" s="18"/>
       <c r="P52" s="11"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="17"/>
       <c r="U52" s="14"/>
       <c r="V52" s="14"/>
       <c r="W52" s="14"/>
@@ -14200,101 +14236,132 @@
       <c r="BI52" s="18"/>
     </row>
     <row r="53" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6"/>
-      <c r="AB53" s="6"/>
-      <c r="AC53" s="6"/>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="6"/>
-      <c r="AG53" s="6"/>
-      <c r="AH53" s="6"/>
-      <c r="AI53" s="6"/>
-      <c r="AJ53" s="6"/>
-      <c r="AK53" s="6"/>
-      <c r="AL53" s="6"/>
-      <c r="AM53" s="6"/>
-      <c r="AN53" s="6"/>
-      <c r="AO53" s="6"/>
-      <c r="AP53" s="6"/>
-      <c r="AQ53" s="6"/>
-      <c r="AR53" s="6"/>
-      <c r="AS53" s="6"/>
-      <c r="AT53" s="37"/>
-      <c r="AU53" s="41"/>
-      <c r="AV53" s="41"/>
-      <c r="AW53" s="38"/>
-      <c r="AX53" s="7"/>
-      <c r="AY53" s="38"/>
-      <c r="AZ53" s="38"/>
-      <c r="BA53" s="38"/>
-      <c r="BB53" s="38"/>
-      <c r="BC53" s="38"/>
-      <c r="BD53" s="38"/>
-      <c r="BE53" s="38"/>
-      <c r="BF53" s="38"/>
-      <c r="BG53" s="38"/>
-      <c r="BH53" s="38"/>
-      <c r="BI53" s="39"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="11"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="14"/>
+      <c r="AK53" s="14"/>
+      <c r="AL53" s="14"/>
+      <c r="AM53" s="14"/>
+      <c r="AN53" s="14"/>
+      <c r="AO53" s="14"/>
+      <c r="AP53" s="14"/>
+      <c r="AQ53" s="14"/>
+      <c r="AR53" s="14"/>
+      <c r="AS53" s="14"/>
+      <c r="AT53" s="11"/>
+      <c r="AW53" s="17"/>
+      <c r="AX53" s="16"/>
+      <c r="AY53" s="17"/>
+      <c r="AZ53" s="17"/>
+      <c r="BA53" s="17"/>
+      <c r="BB53" s="17"/>
+      <c r="BC53" s="17"/>
+      <c r="BD53" s="17"/>
+      <c r="BE53" s="17"/>
+      <c r="BF53" s="17"/>
+      <c r="BG53" s="17"/>
+      <c r="BH53" s="17"/>
+      <c r="BI53" s="18"/>
+    </row>
+    <row r="54" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="6"/>
+      <c r="AN54" s="6"/>
+      <c r="AO54" s="6"/>
+      <c r="AP54" s="6"/>
+      <c r="AQ54" s="6"/>
+      <c r="AR54" s="6"/>
+      <c r="AS54" s="6"/>
+      <c r="AT54" s="37"/>
+      <c r="AU54" s="41"/>
+      <c r="AV54" s="41"/>
+      <c r="AW54" s="38"/>
+      <c r="AX54" s="7"/>
+      <c r="AY54" s="38"/>
+      <c r="AZ54" s="38"/>
+      <c r="BA54" s="38"/>
+      <c r="BB54" s="38"/>
+      <c r="BC54" s="38"/>
+      <c r="BD54" s="38"/>
+      <c r="BE54" s="38"/>
+      <c r="BF54" s="38"/>
+      <c r="BG54" s="38"/>
+      <c r="BH54" s="38"/>
+      <c r="BI54" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="AT13:BI13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A1:L2"/>
+  <mergeCells count="47">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:BI6"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="BD2:BI2"/>
@@ -14304,18 +14371,49 @@
     <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="S13:AS13"/>
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="AT14:BI14"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="P12:AD12"/>
+    <mergeCell ref="AE12:BI12"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:AS14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A10" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A9:A11" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"引数,戻り値,例外,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A11" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A12" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"引数,戻り値,例外"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14323,6 +14421,44 @@
   <pageMargins left="0.59015748031496063" right="0.59015748031496063" top="0.8271653543307087" bottom="1.2208661417322835" header="0.78740157480314954" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CDE16D5A-DCDE-43C7-94A4-C4FF11CFFE00}">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>G6:BI6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5269B8-8415-4DDA-BE01-68E1E5B227F6}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14336,6 +14472,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -14467,12 +14609,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
   <ds:schemaRefs>
@@ -14482,6 +14618,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7560E91F-1ABF-4BEF-A078-A8FA5AD9AA18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14497,13 +14642,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>